--- a/data/income_statement/3digits/total/235_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/235_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>235-Manufacture of cement, lime and plaster</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>235-Manufacture of cement, lime and plaster</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>7082088.081189999</v>
@@ -956,22 +862,22 @@
         <v>8070196.24609</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9555250.919539999</v>
+        <v>9558750.232170001</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>10186020.15862</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11510417.03948</v>
+        <v>11689445.57644</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12059575.03673</v>
+        <v>13485071.91739</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14391019.25055</v>
+        <v>14487007.75262</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13799110.98658</v>
+        <v>14472074.07624</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17048657.62333</v>
@@ -980,13 +886,18 @@
         <v>20733332.03101</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19390470.53233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19390522.44227</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27056350.249</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5040403.69155</v>
@@ -995,22 +906,22 @@
         <v>6259601.48786</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7865612.432200001</v>
+        <v>7869039.187689999</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>8588851.743930001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9999910.68523</v>
+        <v>10137924.03944</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10628100.22185</v>
+        <v>11911755.5304</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12508257.54266</v>
+        <v>12589000.11587</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11930744.75116</v>
+        <v>12581771.46377</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>14621332.55255</v>
@@ -1019,13 +930,18 @@
         <v>16987474.31562</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13676987.83138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13677018.49183</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18324618.681</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1898326.6815</v>
@@ -1040,16 +956,16 @@
         <v>1415820.42603</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1391683.18075</v>
+        <v>1432227.19309</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1322582.50403</v>
+        <v>1463906.73245</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1783335.33512</v>
+        <v>1798581.26398</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1683190.3138</v>
+        <v>1697858.90928</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2176606.25583</v>
@@ -1058,13 +974,18 @@
         <v>3410568.39353</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5349004.19003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5349025.439520001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8290479.815</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>143357.70814</v>
@@ -1073,22 +994,22 @@
         <v>100853.0329</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>138531.80009</v>
+        <v>138604.35723</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>181347.98866</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>118823.1735</v>
+        <v>119294.34391</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>108892.31085</v>
+        <v>109409.65454</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>99426.37277</v>
+        <v>99426.37277000002</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>185175.92162</v>
+        <v>192443.70319</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>250718.81495</v>
@@ -1099,35 +1020,40 @@
       <c r="M8" s="48" t="n">
         <v>364478.51092</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>441251.753</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>275002.69988</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>279470.7358700001</v>
+        <v>279470.73587</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>308422.10707</v>
+        <v>308427.83589</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>353108.6102500001</v>
+        <v>353108.61025</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>403686.52645</v>
+        <v>411485.86683</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>419602.3573799999</v>
+        <v>468304.20185</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>683989.7316899999</v>
+        <v>691159.3240500001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>736316.1025999999</v>
+        <v>737663.5052</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>843714.0152900001</v>
@@ -1138,14 +1064,19 @@
       <c r="M9" s="47" t="n">
         <v>1066336.15588</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>1352752.882</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9549.237580000003</v>
+        <v>9549.237580000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>4576.703850000001</v>
@@ -1157,16 +1088,16 @@
         <v>4380.10549</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4296.992439999999</v>
+        <v>4296.99244</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>10876.53179</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>29542.71832</v>
+        <v>29564.43209</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>85629.23887</v>
+        <v>85891.86673000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>14192.21059</v>
@@ -1177,35 +1108,40 @@
       <c r="M10" s="48" t="n">
         <v>23102.42064</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>30523.639</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>98423.20007000001</v>
+        <v>98423.20006999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>92949.42390000001</v>
+        <v>92949.42389999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>111526.28143</v>
+        <v>111532.01025</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>123567.57983</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>134662.1525</v>
+        <v>142307.36548</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>162344.48475</v>
+        <v>182116.81489</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>294339.4145</v>
+        <v>294742.52805</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>271091.48681</v>
+        <v>271939.6132400001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>303816.52552</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>193314.79914</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>274663.36</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>167030.26223</v>
@@ -1235,16 +1176,16 @@
         <v>225160.92493</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>264727.38151</v>
+        <v>264881.50891</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>246381.34084</v>
+        <v>275310.8551699999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>360107.5988699999</v>
+        <v>366852.36391</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>379595.37692</v>
+        <v>379832.02523</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>525705.27918</v>
@@ -1255,35 +1196,40 @@
       <c r="M12" s="48" t="n">
         <v>849918.9361</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1047565.883</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6807085.381309999</v>
+        <v>6807085.38131</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7790725.51022</v>
+        <v>7790725.510220001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9246828.81247</v>
+        <v>9250322.39628</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>9832911.54837</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11106730.51303</v>
+        <v>11277959.70961</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11639972.67935</v>
+        <v>13016767.71554</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13707029.51886</v>
+        <v>13795848.42857</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13062794.88398</v>
+        <v>13734410.57104</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>16204943.60804</v>
@@ -1292,76 +1238,86 @@
         <v>19634931.77809</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18324134.37645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18324186.28639</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25703597.367</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4964973.682670001</v>
+        <v>4964973.68267</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>5757180.35656</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6677956.093370001</v>
+        <v>6680872.69416</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7269234.07251</v>
+        <v>7269234.072509999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7810180.835670001</v>
+        <v>7958513.718610001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7638023.6073</v>
+        <v>8625780.35335</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9082882.329359999</v>
+        <v>9152080.03468</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8733859.569</v>
+        <v>9173431.662379999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11924652.78276</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14753315.63013</v>
+        <v>14753449.14749</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14857413.18799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14857528.93571</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>19824858.958</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4823867.025889999</v>
+        <v>4823867.02589</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5589880.61932</v>
+        <v>5589880.619320001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6477496.98974</v>
+        <v>6480413.59053</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>7017656.623149999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7603128.141720001</v>
+        <v>7747396.78058</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7421180.432279999</v>
+        <v>8387476.75776</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8812146.32308</v>
+        <v>8879994.73942</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8416646.76279</v>
+        <v>8848638.472130001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>11477335.53976</v>
@@ -1370,16 +1326,21 @@
         <v>14131926.79461</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14246551.91767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14246569.21991</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>18714546.99</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>95656.48016999998</v>
+        <v>95656.48017</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>117420.03024</v>
@@ -1391,16 +1352,16 @@
         <v>120047.10854</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>136770.54831</v>
+        <v>140834.79239</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>148594.58352</v>
+        <v>160431.63879</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>171330.75146</v>
+        <v>171597.63204</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>196908.49153</v>
+        <v>202703.54411</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>295517.9086</v>
@@ -1409,13 +1370,18 @@
         <v>429834.71136</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>417923.57267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>417927.02912</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>816141.0209999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>25758.48744</v>
@@ -1433,28 +1399,33 @@
         <v>52523.90145</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>46004.92808999999</v>
+        <v>55628.29339000001</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>66401.14313</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>83532.39923000002</v>
+        <v>83532.39923000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>99515.77346000001</v>
+        <v>99515.77346</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>129789.56924</v>
+        <v>129923.0866</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>124054.22987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>124149.2189</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>153204.767</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19691.68917</v>
@@ -1466,7 +1437,7 @@
         <v>31710.17224</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>86647.89725999998</v>
+        <v>86647.89726000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>17758.24419</v>
@@ -1475,10 +1446,10 @@
         <v>22243.66341</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>33004.11169</v>
+        <v>34086.52009000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>36771.91545</v>
+        <v>38557.24691</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>52283.56094</v>
@@ -1487,13 +1458,18 @@
         <v>61764.55492</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>68883.46778000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>68883.46777999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>140966.18</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1842111.69864</v>
@@ -1502,37 +1478,42 @@
         <v>2033545.15366</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2568872.7191</v>
+        <v>2569449.70212</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>2563677.47586</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3296549.67736</v>
+        <v>3319445.991</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4001949.07205</v>
+        <v>4390987.362190001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4624147.189499999</v>
+        <v>4643768.39389</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4328935.314979999</v>
+        <v>4560978.90866</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4280290.82528</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4881616.147960001</v>
+        <v>4881482.630600001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3466721.188459999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3466657.35068</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5878738.409</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1081204.69736</v>
@@ -1541,37 +1522,42 @@
         <v>1012753.46696</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1017960.82697</v>
+        <v>1018331.25674</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>1121297.20446</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1199075.60245</v>
+        <v>1213989.37565</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1291308.85775</v>
+        <v>1351511.10278</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1431891.94646</v>
+        <v>1447699.15503</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1554962.93662</v>
+        <v>1631448.30225</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1795533.19336</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2160264.01775</v>
+        <v>2160748.69368</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2388104.51419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2389110.53571</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2924940.2</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1361.50326</v>
@@ -1586,13 +1572,13 @@
         <v>1202.4852</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1275.85808</v>
+        <v>1290.78656</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>2123.00398</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2402.26073</v>
+        <v>2483.43292</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3928.47559</v>
@@ -1604,91 +1590,106 @@
         <v>6872.4203</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5414.16843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5414.168430000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4016.182</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>463874.52314</v>
+        <v>463874.5231400001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>473099.19479</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>515380.59799</v>
+        <v>515436.52777</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>561833.0779499999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>609272.50249</v>
+        <v>616061.7196699999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>665408.16623</v>
+        <v>679344.0262800001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>687836.7352999998</v>
+        <v>690517.0764999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>704019.1039499999</v>
+        <v>758496.2353899999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>864086.06597</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1037851.61252</v>
+        <v>1037883.43555</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>1068815.36403</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>1499241.232</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>615968.67096</v>
+        <v>615968.6709599999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>537930.39246</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>501509.50454</v>
+        <v>501824.00453</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>558261.64131</v>
+        <v>558261.6413100001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>588527.24188</v>
+        <v>596636.86942</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>623777.68754</v>
+        <v>670044.0725199999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>741652.9504300001</v>
+        <v>754698.6456099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>847015.35708</v>
+        <v>869023.5912700001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>926064.02913</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1115539.98493</v>
+        <v>1115992.83783</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1313874.98173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1314881.00325</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1421682.786</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>760907.00128</v>
@@ -1697,76 +1698,86 @@
         <v>1020791.6867</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1550911.89213</v>
+        <v>1551118.44538</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>1442380.2714</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2097474.07491</v>
+        <v>2105456.61535</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2710640.2143</v>
+        <v>3039476.25941</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3192255.24304</v>
+        <v>3196069.23886</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2773972.37836</v>
+        <v>2929530.60641</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2484757.63192</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2721352.13021</v>
+        <v>2720733.93692</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1078616.67427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1077546.81497</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2953798.209</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>736216.9701</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>787986.8642299999</v>
+        <v>787986.8642300001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>753970.7110499999</v>
+        <v>753973.42505</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>659272.8747</v>
+        <v>659272.8746999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>792050.4841900001</v>
+        <v>797742.0071999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>804446.79952</v>
+        <v>838973.4721600001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1419457.93112</v>
+        <v>1431117.72307</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1468766.58642</v>
+        <v>1513620.49957</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1940533.96185</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4975421.69105</v>
+        <v>4976557.49398</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4347916.850230001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4349055.98384</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3580191.771</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>38053.33695</v>
@@ -1784,13 +1795,13 @@
         <v>35276.54734</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>27846.78419</v>
+        <v>45572.7125</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>61140.57168</v>
+        <v>61143.03217</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>96375.91970999999</v>
+        <v>97200.62208</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>132858.29939</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>48083.73809</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>38531.075</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15569.03067</v>
@@ -1823,10 +1839,10 @@
         <v>10989.96988</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>12990.89857</v>
+        <v>14198.04985</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>451552.39733</v>
+        <v>452612.43599</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>424007.34876</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>37299.44432</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>17387.305</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>83982.45137000001</v>
@@ -1853,37 +1874,42 @@
         <v>73700.92266</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>70104.79814999999</v>
+        <v>70104.79815</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>94103.58703</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>74044.39722999999</v>
+        <v>74633.87736</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>88986.25803999999</v>
+        <v>89399.82481000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>116608.36861</v>
+        <v>117492.36337</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>117239.68005</v>
+        <v>123758.69323</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>132156.92252</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>186384.62479</v>
+        <v>186493.59503</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>289997.89775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>290415.43669</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>254701.661</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>4580.36133</v>
@@ -1916,13 +1942,18 @@
         <v>44.20946</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>531.6091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>531.6091000000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>819.831</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>17700.10045</v>
@@ -1940,13 +1971,13 @@
         <v>17221.56317</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>20177.58167</v>
+        <v>20213.88917</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>22418.39988</v>
+        <v>22512.30041</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>9569.658090000001</v>
+        <v>10359.95749</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11198.46715</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>104263.38631</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>111104.832</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>45630.13</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>52829.60780000001</v>
+        <v>52829.6078</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>19269.75612</v>
@@ -1991,16 +2027,21 @@
         <v>5.52246</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>503030.7550700001</v>
+        <v>503034.80017</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>118045.96983</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1227.486</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>420429.97275</v>
@@ -2015,31 +2056,36 @@
         <v>365388.13462</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>285300.27374</v>
+        <v>290402.31662</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>560353.1721500001</v>
+        <v>567374.70898</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>636833.3219600001</v>
+        <v>644808.9421100001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>663252.43105</v>
+        <v>699565.3905099999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1167875.1557</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3400849.85164</v>
+        <v>3401870.44139</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3452892.48752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3453612.43219</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2924599.635</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5912.436769999999</v>
@@ -2051,13 +2097,13 @@
         <v>3907.90967</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4348.725719999999</v>
+        <v>4348.72572</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>9315.473689999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>4354.66932</v>
+        <v>6273.03022</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>20779.5383</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>30138.94808</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>15254.617</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>6.26334</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>104359.14981</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>84568.75320000001</v>
+        <v>84568.75319999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>67990.43922</v>
+        <v>67993.15321999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>76636.63931000001</v>
+        <v>76636.63931</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>101408.79226</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>77838.96605999999</v>
+        <v>84042.78711</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>108632.49141</v>
+        <v>110276.26877</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>113273.80276</v>
+        <v>113680.7415</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>168442.96223</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>241998.91769</v>
+        <v>242001.11553</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>266657.10589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>266658.75589</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>216565.329</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>366609.5565900001</v>
+        <v>366609.55659</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>349727.6523300001</v>
+        <v>349727.65233</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>623686.77276</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>274173.04777</v>
+        <v>274173.0477700001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>637459.8849300001</v>
+        <v>639602.9494500001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>516921.73752</v>
+        <v>535272.66151</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1121491.06536</v>
+        <v>1123541.07897</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1275305.6097</v>
+        <v>1285369.65675</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1509204.78692</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4193473.271519999</v>
+        <v>4194921.63583</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3775749.510950001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3775979.06665</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4211413.11</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2698.958900000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>9793.590189999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3101.482</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>30656.64507</v>
@@ -2249,16 +2320,16 @@
         <v>31037.83043</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>59252.62811999999</v>
+        <v>59252.62812</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>31885.81277</v>
+        <v>33974.37169</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>65310.32241</v>
+        <v>66364.22216</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>33201.52006</v>
+        <v>33564.97918</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>26324.29181</v>
@@ -2267,13 +2338,18 @@
         <v>50376.10345</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>64642.87084999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>64642.87085</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>37041.058</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>147.89432</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>148665.63754</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>292460.12869</v>
@@ -2321,37 +2402,42 @@
         <v>291701.52329</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>559308.32254</v>
+        <v>559308.3225400001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>193675.3568</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>524075.4990299999</v>
+        <v>526218.56355</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>425636.2884900001</v>
+        <v>432966.1214000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>971037.15937</v>
+        <v>972031.6236899999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1124666.9881</v>
+        <v>1134367.57603</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1334172.36572</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3943780.992500001</v>
+        <v>3945229.356809999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3397945.23142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3398174.78712</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3981098.41</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>7160.982190000001</v>
@@ -2360,7 +2446,7 @@
         <v>3871.27168</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>4348.725729999999</v>
+        <v>4348.72573</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>8877.92067</v>
@@ -2369,7 +2455,7 @@
         <v>8404.202519999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4913.7929</v>
+        <v>6892.273749999999</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>24938.50047</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>20674.88788</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>21746.083</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.08066</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>33474.86676</v>
@@ -2447,13 +2543,13 @@
         <v>45334.30468</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>53543.31969999999</v>
+        <v>60497.37101</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>59576.39789</v>
+        <v>59578.04743</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>72816.52426999998</v>
+        <v>72816.52426999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>104295.23034</v>
@@ -2464,50 +2560,60 @@
       <c r="M43" s="48" t="n">
         <v>134027.29307</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>168425.87</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>345859.79937</v>
+        <v>345859.7993700001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>341192.31036</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>553519.73736</v>
+        <v>553535.23995</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>401766.80622</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>794586.11708</v>
+        <v>794990.87206</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>591757.2750000001</v>
+        <v>619157.53914</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>919026.2486999999</v>
+        <v>945953.2021700001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>884931.4892599998</v>
+        <v>997491.3379599999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1573988.53527</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3747990.33193</v>
+        <v>3747991.24518</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3172637.38262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3172708.77308</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3984978.079</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>236765.58434</v>
@@ -2516,37 +2622,42 @@
         <v>212857.8984</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>290421.30601</v>
+        <v>290436.8086</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>220956.15624</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>275235.67712</v>
+        <v>275640.4321</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>228648.20422</v>
+        <v>248146.69057</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>427858.8890899999</v>
+        <v>454785.84256</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>484137.7040300001</v>
+        <v>596697.55273</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>796543.7378999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1773432.72663</v>
+        <v>1773433.63988</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1490579.05914</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1490579.7051</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1705406.666</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>109094.21503</v>
@@ -2564,7 +2675,7 @@
         <v>519350.43996</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>363109.07078</v>
+        <v>371010.84857</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>491167.3596099999</v>
@@ -2579,52 +2690,62 @@
         <v>1974557.6053</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1682058.32348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1682129.06798</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2279571.413</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>784654.6154199999</v>
+        <v>784654.61542</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>1117858.58824</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1127676.09306</v>
+        <v>1127869.85772</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>1425713.29211</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1457478.55709</v>
+        <v>1468604.80104</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2406408.0013</v>
+        <v>2724019.53092</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2571195.8601</v>
+        <v>2557692.68079</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2082501.86582</v>
+        <v>2160290.11127</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1342098.27158</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-244689.78219</v>
+        <v>-245621.4501100001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-1521853.36907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1522085.04092</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1662401.209</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>88339.72732999999</v>
@@ -2636,34 +2757,39 @@
         <v>45631.82895</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>79790.42003000002</v>
+        <v>79790.42003000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>99483.57951999998</v>
+        <v>102665.14333</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>322388.28512</v>
+        <v>324190.9599199999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>138421.72886</v>
+        <v>139825.04479</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>255705.69086</v>
+        <v>260643.67906</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>156951.36468</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>177786.97961</v>
+        <v>177836.59777</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>261848.23794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>261877.99505</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>248691.269</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9231.1167</v>
@@ -2678,13 +2804,13 @@
         <v>886.3413499999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>906.27308</v>
+        <v>906.2730799999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1128.04391</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>10970.50812</v>
+        <v>10970.97312</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>706.08005</v>
@@ -2698,50 +2824,60 @@
       <c r="M49" s="48" t="n">
         <v>4961.566809999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>6304.266</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>79108.61063000001</v>
+        <v>79108.61063</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>82250.8303</v>
+        <v>82250.83030000002</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>45043.83648999999</v>
+        <v>45043.83649</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>78904.07867999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>98577.30644</v>
+        <v>101758.87025</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>321260.24121</v>
+        <v>323062.91601</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>127451.22074</v>
+        <v>128854.07167</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>254999.61081</v>
+        <v>259937.59901</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>155338.53882</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>176420.66478</v>
+        <v>176470.28294</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>256886.67113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>256916.42824</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>242387.003</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>155049.21117</v>
@@ -2750,61 +2886,66 @@
         <v>88018.17098000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>144066.23609</v>
+        <v>144067.57265</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>142015.97407</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>157262.45452</v>
+        <v>158002.76297</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>228499.11107</v>
+        <v>242025.75654</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>224616.66607</v>
+        <v>229286.56936</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>239030.31908</v>
+        <v>254194.12068</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>279636.25618</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>403850.25836</v>
+        <v>403867.86752</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>453136.9299999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>453143.17167</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>433470.462</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>55486.29343</v>
+        <v>55486.29342999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>47685.42469</v>
+        <v>47685.42469000001</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>65175.94259000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>73687.06475999999</v>
+        <v>73687.06476000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>73957.01898000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>125240.34267</v>
+        <v>130582.39124</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>104059.79103</v>
+        <v>107895.4694</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>89761.38274000002</v>
+        <v>97146.10981000002</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>158490.08242</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>323521.90739</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>289043.733</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>8247.439689999999</v>
@@ -2837,13 +2983,13 @@
         <v>10498.74336</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11748.64194</v>
+        <v>11978.1392</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>17873.49849</v>
+        <v>17968.37558</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14235.21389</v>
+        <v>17494.87248</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>21097.58084</v>
@@ -2854,50 +3000,60 @@
       <c r="M53" s="48" t="n">
         <v>26299.00344</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>18019.228</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>91315.47805000002</v>
+        <v>91315.47804999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>38037.93103</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>72491.63345000001</v>
+        <v>72492.97001</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>60597.57494999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>72806.69218</v>
+        <v>73547.00062999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>91510.12646</v>
+        <v>99465.2261</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>102683.37655</v>
+        <v>103422.72438</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>135033.72245</v>
+        <v>139553.13839</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>100048.59292</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>110187.1909</v>
+        <v>110204.80006</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>103316.01917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>103322.26084</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>126407.501</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>717945.13158</v>
@@ -2906,37 +3062,42 @@
         <v>1112434.39543</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1029241.68592</v>
+        <v>1029434.11402</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>1363487.73807</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1399699.68209</v>
+        <v>1413267.1814</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2500297.17535</v>
+        <v>2806184.7343</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2485000.92289</v>
+        <v>2468231.15622</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2099177.2376</v>
+        <v>2166739.66965</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1219413.38008</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-470753.0609399999</v>
+        <v>-471652.7198599999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1713142.06113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1713350.21754</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1847180.402</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>144473.06237</v>
@@ -2951,67 +3112,75 @@
         <v>210382.0319</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>255547.91319</v>
+        <v>258505.51513</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>376694.62131</v>
+        <v>434249.04951</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>437305.58251</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>404354.01166</v>
+        <v>417594.8948</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>276941.50071</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>241631.75113</v>
+        <v>241646.97277</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>108159.99841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>108163.70842</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>268802.662</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>573472.06921</v>
+        <v>573472.0692099999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>915123.0085899999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>810100.5846299998</v>
+        <v>810293.0127300001</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>1153105.70617</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1144151.7689</v>
+        <v>1154761.66627</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2123602.55404</v>
+        <v>2371935.68479</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2047695.34038</v>
+        <v>2030925.57371</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1694823.22594</v>
+        <v>1749144.77485</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>942471.87937</v>
+        <v>942471.8793700001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-712384.8120700001</v>
+        <v>-713299.6926299998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1821302.05954</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1821513.92596</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2115983.064</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>192</v>
@@ -3038,34 +3210,37 @@
         <v>189</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>174</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>178</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>167</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>